--- a/biology/Médecine/1416_en_santé_et_médecine/1416_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1416_en_santé_et_médecine/1416_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1416_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1416_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1416 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1416_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1416_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>15 juin : mort de Jean Ier, duc de Berry :
-Jean Le Lièvre († 1418) l'a soigné dans sa dernière maladie, et Gilet Desoubzlefour, qui a été chirurgien juré du roi au Châtelet en 1402, participe à son embaumement[1] ;
-À l'inventaire de sa bibliothèque, on relève un livre de médecine illustré « qui traite de la vertu des herbes et des bêtes », offert en 1413 par Simon Allegret († 1415), médecin ordinaire du duc[2] ; ainsi que les Profits ruraux de Pierre de Crescens, les Propriétés des choses de Barthélemy l'Anglais et le Viandier de Taillevent[3].
-20 septembre : fondation à Sévignac en Bretagne, par Guillaume du Margaro et sa femme, d'une léproserie dédiée à saint Armel et confiée aux hospitaliers de Saint-Lazare[4].
-Plusieurs boucheries parisiennes sont démolies « comme dangereuses pour la santé publique », et ordre est donné aux bouchers de ne plus utiliser qu'un seul et unique abattoir, « situé sur ladite rivière de  Seine, au-delà des fossés du château du Louvre[5] ».</t>
+Jean Le Lièvre († 1418) l'a soigné dans sa dernière maladie, et Gilet Desoubzlefour, qui a été chirurgien juré du roi au Châtelet en 1402, participe à son embaumement ;
+À l'inventaire de sa bibliothèque, on relève un livre de médecine illustré « qui traite de la vertu des herbes et des bêtes », offert en 1413 par Simon Allegret († 1415), médecin ordinaire du duc ; ainsi que les Profits ruraux de Pierre de Crescens, les Propriétés des choses de Barthélemy l'Anglais et le Viandier de Taillevent.
+20 septembre : fondation à Sévignac en Bretagne, par Guillaume du Margaro et sa femme, d'une léproserie dédiée à saint Armel et confiée aux hospitaliers de Saint-Lazare.
+Plusieurs boucheries parisiennes sont démolies « comme dangereuses pour la santé publique », et ordre est donné aux bouchers de ne plus utiliser qu'un seul et unique abattoir, « situé sur ladite rivière de  Seine, au-delà des fossés du château du Louvre ».</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1416_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1416_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,18 +559,20 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Abraham, médecin juif, appelé auprès de la fille de Jean sans Peur, Marguerite, duchesse de Guyenne, accusé d'avoir incité des mendiants à empoisonner des puits à Chateauneuf[6].
-Fl. Étienne Brun, médecin de Jean Ier, duc de Berry ; il l'assiste dans sa dernière maladie[6].
-Fl. Jean Régnier, médecin de Guillaume, comte de Hainaut et duc de Bavière ; il soigne son gendre, le dauphin Jean, qui mourra en 1417[7].
-1378-1416 : fl. Jean Lommedieu, écolier à Montpellier, médecin du duc de Berry ; il l'assiste en 1416 dans sa dernière maladie[7].
-1385-1416 : fl. Bérenger Bertrand, licencié en médecine, plusieurs fois consul de la cité de Rodez[6].
-1398-1416 : fl. Étienne Bruni, licencié en médecine, fonctionnaire de l'administration financière du Comtat Venaissin[6].
-1401-1416 : fl. Durand Comitis, « maître ès arts et licencié en médecine, témoin de l'élection d'un abbé de La Grasse » en 1416[6].
-1411-1416 : fl. Étienne Bru, candidat aux fonctions de médecin de la ville de Riom en 1411, puis médecin de la ville de Saint-Flour en 1416[6].
-1416-1438 : fl. Barthélemy Partant, barbier de Jean, duc de Touraine et dauphin de France, puis de Philippe le Bon, duc de Bourgogne[6].
-1416-1451 : fl. Bernard Nivard, reçu docteur en médecine à Paris, accusé de faux, emprisonné par le prévôt puis par l'évêque, soumis à la question ; par la suite, un héritage lui est contesté à Amiens par le chapitre cathédral[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Abraham, médecin juif, appelé auprès de la fille de Jean sans Peur, Marguerite, duchesse de Guyenne, accusé d'avoir incité des mendiants à empoisonner des puits à Chateauneuf.
+Fl. Étienne Brun, médecin de Jean Ier, duc de Berry ; il l'assiste dans sa dernière maladie.
+Fl. Jean Régnier, médecin de Guillaume, comte de Hainaut et duc de Bavière ; il soigne son gendre, le dauphin Jean, qui mourra en 1417.
+1378-1416 : fl. Jean Lommedieu, écolier à Montpellier, médecin du duc de Berry ; il l'assiste en 1416 dans sa dernière maladie.
+1385-1416 : fl. Bérenger Bertrand, licencié en médecine, plusieurs fois consul de la cité de Rodez.
+1398-1416 : fl. Étienne Bruni, licencié en médecine, fonctionnaire de l'administration financière du Comtat Venaissin.
+1401-1416 : fl. Durand Comitis, « maître ès arts et licencié en médecine, témoin de l'élection d'un abbé de La Grasse » en 1416.
+1411-1416 : fl. Étienne Bru, candidat aux fonctions de médecin de la ville de Riom en 1411, puis médecin de la ville de Saint-Flour en 1416.
+1416-1438 : fl. Barthélemy Partant, barbier de Jean, duc de Touraine et dauphin de France, puis de Philippe le Bon, duc de Bourgogne.
+1416-1451 : fl. Bernard Nivard, reçu docteur en médecine à Paris, accusé de faux, emprisonné par le prévôt puis par l'évêque, soumis à la question ; par la suite, un héritage lui est contesté à Amiens par le chapitre cathédral.</t>
         </is>
       </c>
     </row>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1416_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1416_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,12 +600,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>23 avril : Blaise de Parme (né en 1347), philosophe, mathématicien et médecin italien, recteur en 1412 de l'université de Parme[8].
-Azz eddin ben Djema (né en 1358), polygraphe établi au Caire, auteur de l'Anouar fithobb ( « Éclaircissements sur la médecine »), d'un corps de médecine, le Djami fitthobb, et d'un traité d'hippologie[9].
-Jean Durand (né à une date inconnue), médecin et astronome normand, « titulaire de la première bourse pour l’enseignement de l’astrologie à Paris sous Charles V », médecin de Philippe le Hardi, duc de Bourgogne[10].
-Entre 1416 et 1434 : Nardin de Aldobrandino de Bovateriis (né à une date inconnue), docteur en médecine, praticien à Florence, Prato, Avignon, médecin des papes Clément VII et Benoît XIII[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23 avril : Blaise de Parme (né en 1347), philosophe, mathématicien et médecin italien, recteur en 1412 de l'université de Parme.
+Azz eddin ben Djema (né en 1358), polygraphe établi au Caire, auteur de l'Anouar fithobb ( « Éclaircissements sur la médecine »), d'un corps de médecine, le Djami fitthobb, et d'un traité d'hippologie.
+Jean Durand (né à une date inconnue), médecin et astronome normand, « titulaire de la première bourse pour l’enseignement de l’astrologie à Paris sous Charles V », médecin de Philippe le Hardi, duc de Bourgogne.
+Entre 1416 et 1434 : Nardin de Aldobrandino de Bovateriis (né à une date inconnue), docteur en médecine, praticien à Florence, Prato, Avignon, médecin des papes Clément VII et Benoît XIII.</t>
         </is>
       </c>
     </row>
